--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{101390D1-7E16-41E9-A989-CC269CE414DE}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1454A460-6164-4F36-B044-AF2F457D4A1A}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="-12600" windowWidth="18675" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="-13755" windowWidth="24210" windowHeight="12285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="89">
   <si>
     <r>
       <rPr>
@@ -263,33 +263,15 @@
     <t>通常勤務</t>
   </si>
   <si>
-    <t>当9:00</t>
-  </si>
-  <si>
-    <t>当18:00</t>
-  </si>
-  <si>
     <t>23/07/04（火）</t>
   </si>
   <si>
-    <t>当8:40</t>
-  </si>
-  <si>
-    <t>当18:42</t>
-  </si>
-  <si>
     <t>23/07/05（水）</t>
   </si>
   <si>
     <t>ﾃﾚﾜ9-18</t>
   </si>
   <si>
-    <t>当8:50</t>
-  </si>
-  <si>
-    <t>当18:35</t>
-  </si>
-  <si>
     <t>23/07/06（木）</t>
   </si>
   <si>
@@ -300,12 +282,6 @@
   </si>
   <si>
     <t>23/07/07（金）</t>
-  </si>
-  <si>
-    <t>当8:41</t>
-  </si>
-  <si>
-    <t>当19:25</t>
   </si>
   <si>
     <t>23/07/08（土）</t>
@@ -459,6 +435,103 @@
     <t>休日</t>
     <rPh sb="0" eb="2">
       <t>キュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数(休み)</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩1</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩2</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩3</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩4</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩1まで</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩1から</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩2まで</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩2から</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩3まで</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -467,10 +540,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0000/00"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\(aaa\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="182" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -532,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -559,6 +633,12 @@
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -568,12 +648,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -877,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -908,10 +985,10 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -922,19 +999,19 @@
       <c r="C3" s="9">
         <v>45108</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
@@ -948,10 +1025,10 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,10 +1046,10 @@
         <f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45108</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="13"/>
+      <c r="C7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
         <v>14</v>
@@ -988,10 +1065,10 @@
         <f t="shared" ref="B8:B37" si="0">B7+1</f>
         <v>45109</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="13"/>
+      <c r="C8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>13</v>
@@ -1005,10 +1082,10 @@
         <f t="shared" si="0"/>
         <v>45110</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
         <v>14</v>
@@ -1022,10 +1099,10 @@
         <f t="shared" si="0"/>
         <v>45111</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>13</v>
@@ -1039,10 +1116,10 @@
         <f t="shared" si="0"/>
         <v>45112</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
         <v>14</v>
@@ -1056,10 +1133,10 @@
         <f t="shared" si="0"/>
         <v>45113</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>13</v>
@@ -1073,10 +1150,10 @@
         <f t="shared" si="0"/>
         <v>45114</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
         <v>14</v>
@@ -1090,10 +1167,10 @@
         <f t="shared" si="0"/>
         <v>45115</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
         <v>13</v>
@@ -1107,10 +1184,10 @@
         <f t="shared" si="0"/>
         <v>45116</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="11"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
         <v>14</v>
@@ -1124,10 +1201,10 @@
         <f t="shared" si="0"/>
         <v>45117</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
         <v>13</v>
@@ -1141,10 +1218,10 @@
         <f t="shared" si="0"/>
         <v>45118</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>14</v>
@@ -1158,10 +1235,10 @@
         <f t="shared" si="0"/>
         <v>45119</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -1175,10 +1252,10 @@
         <f t="shared" si="0"/>
         <v>45120</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2" t="s">
         <v>14</v>
@@ -1191,10 +1268,10 @@
         <f t="shared" si="0"/>
         <v>45121</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>13</v>
@@ -1207,10 +1284,10 @@
         <f t="shared" si="0"/>
         <v>45122</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
         <v>14</v>
@@ -1223,10 +1300,10 @@
         <f t="shared" si="0"/>
         <v>45123</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="14"/>
+      <c r="C22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
         <v>13</v>
@@ -1237,10 +1314,10 @@
         <f t="shared" si="0"/>
         <v>45124</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="14"/>
+      <c r="C23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="10"/>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
         <v>14</v>
@@ -1251,10 +1328,10 @@
         <f t="shared" si="0"/>
         <v>45125</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="14"/>
+      <c r="C24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="10"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
         <v>13</v>
@@ -1265,10 +1342,10 @@
         <f t="shared" si="0"/>
         <v>45126</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="14"/>
+      <c r="C25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="10"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
         <v>14</v>
@@ -1279,10 +1356,10 @@
         <f t="shared" si="0"/>
         <v>45127</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="14"/>
+      <c r="C26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="10"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
         <v>13</v>
@@ -1293,10 +1370,10 @@
         <f t="shared" si="0"/>
         <v>45128</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="14"/>
+      <c r="C27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10"/>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
         <v>14</v>
@@ -1307,10 +1384,10 @@
         <f t="shared" si="0"/>
         <v>45129</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="14"/>
+      <c r="C28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="10"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
         <v>13</v>
@@ -1321,10 +1398,10 @@
         <f t="shared" si="0"/>
         <v>45130</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="10"/>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
         <v>14</v>
@@ -1335,10 +1412,10 @@
         <f t="shared" si="0"/>
         <v>45131</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
         <v>13</v>
@@ -1349,10 +1426,10 @@
         <f t="shared" si="0"/>
         <v>45132</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
         <v>14</v>
@@ -1363,10 +1440,10 @@
         <f t="shared" si="0"/>
         <v>45133</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -1377,10 +1454,10 @@
         <f t="shared" si="0"/>
         <v>45134</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
         <v>14</v>
@@ -1391,10 +1468,10 @@
         <f t="shared" si="0"/>
         <v>45135</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
         <v>13</v>
@@ -1405,10 +1482,10 @@
         <f t="shared" si="0"/>
         <v>45136</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="14"/>
+      <c r="C35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="10"/>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
         <v>14</v>
@@ -1419,10 +1496,10 @@
         <f t="shared" si="0"/>
         <v>45137</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="14"/>
+      <c r="C36" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="10"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
         <v>13</v>
@@ -1433,10 +1510,10 @@
         <f t="shared" si="0"/>
         <v>45138</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
         <v>14</v>
@@ -1444,41 +1521,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B7:F37">
@@ -1500,31 +1577,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112D9E-0DB1-4747-AB6C-73CE8930DFF9}">
-  <dimension ref="B2:F32"/>
+  <dimension ref="B2:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="8" max="14" width="8.6640625" style="17"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:19">
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="H3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -1534,16 +1644,49 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="15">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="17">
+        <f>IF(E4 &gt; $S$7, E4, $S$7)</f>
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="I4" s="17">
+        <f>IF(F4 &gt; $R$4, $R$4, F4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="17">
+        <f>IF(F4 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K4" s="17">
+        <f>IF(F4 &gt; $R$5, $R$5, F4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="17" t="b">
+        <f>IF(F4 &gt; $S$5, $S$5, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="17" t="b">
+        <f>IF(L4 = FALSE, FALSE,IF(F4 &gt; $R$6, $R$6, F4))</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
-        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1551,50 +1694,149 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="15">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="H5" s="17">
+        <f>IF(E5 &gt; $S$7, E5, $S$7)</f>
+        <v>0.375</v>
+      </c>
+      <c r="I5" s="17">
+        <f>IF(F5 &gt; $R$4, $R$4, F5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="17">
+        <f>IF(F5 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K5" s="17">
+        <f>IF(F5 &gt; $R$5, $R$5, F5)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L5" s="17">
+        <f t="shared" ref="L5:L8" si="0">IF(F5 &gt; $S$5, $S$5, FALSE)</f>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" ref="M5:M8" si="1">IF(L5 = FALSE, FALSE,IF(F5 &gt; $R$6, $R$6, F5))</f>
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" ref="H6:H8" si="2">IF(E6 &gt; $S$7, E6, $S$7)</f>
+        <v>0.375</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" ref="I6:I8" si="3">IF(F6 &gt; $R$4, $R$4, F6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" ref="J6:J8" si="4">IF(F6 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" ref="K6:K8" si="5">IF(F6 &gt; $R$5, $R$5, F6)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="1"/>
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="S6" s="16">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="4"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="L7" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="S7" s="15">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
-        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1602,49 +1844,73 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="E8" s="15">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="4"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="M8" s="17">
+        <f t="shared" si="1"/>
+        <v>0.80902777777777779</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:19">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:19">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
+    </row>
+    <row r="12" spans="2:19">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1653,32 +1919,32 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
       <c r="B14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1687,32 +1953,32 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
       <c r="B16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1720,7 +1986,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -1728,7 +1994,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -1736,7 +2002,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1745,66 +2011,66 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1812,7 +2078,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -1820,7 +2086,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1829,83 +2095,83 @@
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1913,7 +2179,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -1921,19 +2187,19 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1454A460-6164-4F36-B044-AF2F457D4A1A}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="-13755" windowWidth="24210" windowHeight="12285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-13080" windowWidth="18675" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
     <numFmt numFmtId="176" formatCode="0000/00"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\(aaa\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="182" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -633,12 +633,9 @@
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -648,9 +645,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -955,7 +955,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -985,33 +985,33 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="7">
         <f ca="1">TODAY()</f>
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="C3" s="9">
         <v>45108</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
@@ -1025,10 +1025,10 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,10 +1046,10 @@
         <f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45108</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
         <v>14</v>
@@ -1065,10 +1065,10 @@
         <f t="shared" ref="B8:B37" si="0">B7+1</f>
         <v>45109</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>13</v>
@@ -1082,10 +1082,10 @@
         <f t="shared" si="0"/>
         <v>45110</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
         <v>14</v>
@@ -1099,10 +1099,10 @@
         <f t="shared" si="0"/>
         <v>45111</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>13</v>
@@ -1116,10 +1116,10 @@
         <f t="shared" si="0"/>
         <v>45112</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
         <v>14</v>
@@ -1133,10 +1133,10 @@
         <f t="shared" si="0"/>
         <v>45113</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>13</v>
@@ -1150,10 +1150,10 @@
         <f t="shared" si="0"/>
         <v>45114</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
         <v>14</v>
@@ -1167,10 +1167,10 @@
         <f t="shared" si="0"/>
         <v>45115</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
         <v>13</v>
@@ -1184,10 +1184,10 @@
         <f t="shared" si="0"/>
         <v>45116</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
         <v>14</v>
@@ -1201,10 +1201,10 @@
         <f t="shared" si="0"/>
         <v>45117</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
         <v>13</v>
@@ -1218,10 +1218,10 @@
         <f t="shared" si="0"/>
         <v>45118</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>14</v>
@@ -1235,10 +1235,10 @@
         <f t="shared" si="0"/>
         <v>45119</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -1252,10 +1252,10 @@
         <f t="shared" si="0"/>
         <v>45120</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2" t="s">
         <v>14</v>
@@ -1268,10 +1268,10 @@
         <f t="shared" si="0"/>
         <v>45121</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>13</v>
@@ -1284,10 +1284,10 @@
         <f t="shared" si="0"/>
         <v>45122</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
         <v>14</v>
@@ -1300,10 +1300,10 @@
         <f t="shared" si="0"/>
         <v>45123</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
         <v>13</v>
@@ -1314,10 +1314,10 @@
         <f t="shared" si="0"/>
         <v>45124</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="10"/>
+      <c r="C23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="17"/>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
         <v>14</v>
@@ -1328,10 +1328,10 @@
         <f t="shared" si="0"/>
         <v>45125</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="10"/>
+      <c r="C24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="17"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
         <v>13</v>
@@ -1342,10 +1342,10 @@
         <f t="shared" si="0"/>
         <v>45126</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="10"/>
+      <c r="C25" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="17"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
         <v>14</v>
@@ -1356,10 +1356,10 @@
         <f t="shared" si="0"/>
         <v>45127</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="10"/>
+      <c r="C26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="17"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
         <v>13</v>
@@ -1370,10 +1370,10 @@
         <f t="shared" si="0"/>
         <v>45128</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="10"/>
+      <c r="C27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="17"/>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
         <v>14</v>
@@ -1384,10 +1384,10 @@
         <f t="shared" si="0"/>
         <v>45129</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
         <v>13</v>
@@ -1398,10 +1398,10 @@
         <f t="shared" si="0"/>
         <v>45130</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
         <v>14</v>
@@ -1412,10 +1412,10 @@
         <f t="shared" si="0"/>
         <v>45131</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
         <v>13</v>
@@ -1426,10 +1426,10 @@
         <f t="shared" si="0"/>
         <v>45132</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
         <v>14</v>
@@ -1440,10 +1440,10 @@
         <f t="shared" si="0"/>
         <v>45133</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -1454,10 +1454,10 @@
         <f t="shared" si="0"/>
         <v>45134</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
         <v>14</v>
@@ -1468,10 +1468,10 @@
         <f t="shared" si="0"/>
         <v>45135</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
         <v>13</v>
@@ -1482,10 +1482,10 @@
         <f t="shared" si="0"/>
         <v>45136</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
         <v>14</v>
@@ -1496,10 +1496,10 @@
         <f t="shared" si="0"/>
         <v>45137</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
         <v>13</v>
@@ -1510,10 +1510,10 @@
         <f t="shared" si="0"/>
         <v>45138</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
         <v>14</v>
@@ -1521,41 +1521,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B7:F37">
@@ -1580,12 +1580,12 @@
   <dimension ref="B2:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="8" max="14" width="8.6640625" style="17"/>
+    <col min="8" max="14" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
@@ -1606,22 +1606,22 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="12" t="s">
         <v>88</v>
       </c>
       <c r="Q3" t="s">
@@ -1644,43 +1644,43 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="10">
         <v>0.38194444444444442</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="10">
         <v>0.75</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="12">
         <f>IF(E4 &gt; $S$7, E4, $S$7)</f>
         <v>0.38194444444444442</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="12">
         <f>IF(F4 &gt; $R$4, $R$4, F4)</f>
         <v>0.5</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="12">
         <f>IF(F4 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="12">
         <f>IF(F4 &gt; $R$5, $R$5, F4)</f>
         <v>0.75</v>
       </c>
-      <c r="L4" s="17" t="b">
+      <c r="L4" s="12" t="b">
         <f>IF(F4 &gt; $S$5, $S$5, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="17" t="b">
+      <c r="M4" s="12" t="b">
         <f>IF(L4 = FALSE, FALSE,IF(F4 &gt; $R$6, $R$6, F4))</f>
         <v>0</v>
       </c>
       <c r="Q4" t="s">
         <v>77</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="10">
         <v>0.5</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="10">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -1694,43 +1694,43 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <v>0.3611111111111111</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="10">
         <v>0.77916666666666667</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="12">
         <f>IF(E5 &gt; $S$7, E5, $S$7)</f>
         <v>0.375</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="12">
         <f>IF(F5 &gt; $R$4, $R$4, F5)</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="12">
         <f>IF(F5 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="12">
         <f>IF(F5 &gt; $R$5, $R$5, F5)</f>
         <v>0.75</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="12">
         <f t="shared" ref="L5:L8" si="0">IF(F5 &gt; $S$5, $S$5, FALSE)</f>
         <v>0.77083333333333337</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="12">
         <f t="shared" ref="M5:M8" si="1">IF(L5 = FALSE, FALSE,IF(F5 &gt; $R$6, $R$6, F5))</f>
         <v>0.77916666666666667</v>
       </c>
       <c r="Q5" t="s">
         <v>78</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="10">
         <v>0.75</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="10">
         <v>0.77083333333333337</v>
       </c>
     </row>
@@ -1744,43 +1744,43 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <v>0.36805555555555558</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="10">
         <v>0.77430555555555547</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="12">
         <f t="shared" ref="H6:H8" si="2">IF(E6 &gt; $S$7, E6, $S$7)</f>
         <v>0.375</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="12">
         <f t="shared" ref="I6:I8" si="3">IF(F6 &gt; $R$4, $R$4, F6)</f>
         <v>0.5</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="12">
         <f t="shared" ref="J6:J8" si="4">IF(F6 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="12">
         <f t="shared" ref="K6:K8" si="5">IF(F6 &gt; $R$5, $R$5, F6)</f>
         <v>0.75</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="12">
         <f t="shared" si="0"/>
         <v>0.77083333333333337</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="12">
         <f t="shared" si="1"/>
         <v>0.77430555555555547</v>
       </c>
       <c r="Q6" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="10">
         <v>0.97916666666666663</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -1794,43 +1794,43 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="10">
         <v>0.36458333333333331</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="10">
         <v>0.76874999999999993</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="12">
         <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="12">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="12">
         <f t="shared" si="4"/>
         <v>0.54166666666666663</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="12">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
-      <c r="L7" s="17" t="b">
+      <c r="L7" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="17" t="b">
+      <c r="M7" s="12" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q7" t="s">
         <v>80</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="10">
         <v>0.20833333333333334</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="10">
         <v>0.375</v>
       </c>
     </row>
@@ -1844,33 +1844,33 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="10">
         <v>0.36180555555555555</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="10">
         <v>0.80902777777777779</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="12">
         <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="12">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="12">
         <f t="shared" si="4"/>
         <v>0.54166666666666663</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="12">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="12">
         <f t="shared" si="0"/>
         <v>0.77083333333333337</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="12">
         <f t="shared" si="1"/>
         <v>0.80902777777777779</v>
       </c>

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1454A460-6164-4F36-B044-AF2F457D4A1A}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB8F8DC7-54D9-4671-8C44-23D49BEB46B4}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-13080" windowWidth="18675" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="-11655" windowWidth="18675" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -1580,7 +1580,7 @@
   <dimension ref="B2:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1595,6 +1595,8 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="Q2" t="s">
         <v>76</v>
       </c>
@@ -1606,6 +1608,8 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="H3" s="12" t="s">
         <v>82</v>
       </c>

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB8F8DC7-54D9-4671-8C44-23D49BEB46B4}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43FE41FA-B546-4DF2-8D35-C43232336297}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="-11655" windowWidth="18675" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9450" yWindow="-11655" windowWidth="18675" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
   <si>
     <r>
       <rPr>
@@ -245,178 +245,85 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>23/07/01（土）</t>
-  </si>
-  <si>
     <t>法定外休日</t>
   </si>
   <si>
-    <t>23/07/02（日）</t>
-  </si>
-  <si>
     <t>法定休日</t>
   </si>
   <si>
-    <t>23/07/03（月）</t>
-  </si>
-  <si>
     <t>通常勤務</t>
   </si>
   <si>
-    <t>23/07/04（火）</t>
-  </si>
-  <si>
-    <t>23/07/05（水）</t>
-  </si>
-  <si>
     <t>ﾃﾚﾜ9-18</t>
   </si>
   <si>
-    <t>23/07/06（木）</t>
-  </si>
-  <si>
     <t>当8:45</t>
   </si>
   <si>
     <t>当18:27</t>
   </si>
   <si>
-    <t>23/07/07（金）</t>
-  </si>
-  <si>
-    <t>23/07/08（土）</t>
-  </si>
-  <si>
-    <t>23/07/09（日）</t>
-  </si>
-  <si>
-    <t>23/07/10（月）</t>
-  </si>
-  <si>
     <t>当18:46</t>
   </si>
   <si>
-    <t>23/07/11（火）</t>
-  </si>
-  <si>
     <t>当8:51</t>
   </si>
   <si>
     <t>当19:27</t>
   </si>
   <si>
-    <t>23/07/12（水）</t>
-  </si>
-  <si>
     <t>当8:47</t>
   </si>
   <si>
     <t>当18:26</t>
   </si>
   <si>
-    <t>23/07/13（木）</t>
-  </si>
-  <si>
     <t>当8:54</t>
   </si>
   <si>
     <t>当19:04</t>
   </si>
   <si>
-    <t>23/07/14（金）</t>
-  </si>
-  <si>
     <t>当8:52</t>
   </si>
   <si>
-    <t>23/07/15（土）</t>
-  </si>
-  <si>
-    <t>23/07/16（日）</t>
-  </si>
-  <si>
-    <t>23/07/17（月）</t>
-  </si>
-  <si>
-    <t>23/07/18（火）</t>
-  </si>
-  <si>
     <t>当8:58</t>
   </si>
   <si>
     <t>当19:02</t>
   </si>
   <si>
-    <t>23/07/19（水）</t>
-  </si>
-  <si>
     <t>当8:48</t>
   </si>
   <si>
     <t>当18:31</t>
   </si>
   <si>
-    <t>23/07/20（木）</t>
-  </si>
-  <si>
     <t>当18:47</t>
   </si>
   <si>
-    <t>23/07/21（金）</t>
-  </si>
-  <si>
     <t>当8:46</t>
   </si>
   <si>
     <t>当18:18</t>
   </si>
   <si>
-    <t>23/07/22（土）</t>
-  </si>
-  <si>
-    <t>23/07/23（日）</t>
-  </si>
-  <si>
-    <t>23/07/24（月）</t>
-  </si>
-  <si>
     <t>当19:10</t>
   </si>
   <si>
-    <t>23/07/25（火）</t>
-  </si>
-  <si>
     <t>当8:53</t>
   </si>
   <si>
     <t>当18:22</t>
   </si>
   <si>
-    <t>23/07/26（水）</t>
-  </si>
-  <si>
     <t>当18:36</t>
   </si>
   <si>
-    <t>23/07/27（木）</t>
-  </si>
-  <si>
     <t>当18:12</t>
   </si>
   <si>
-    <t>23/07/28（金）</t>
-  </si>
-  <si>
     <t>当19:50</t>
-  </si>
-  <si>
-    <t>23/07/29（土）</t>
-  </si>
-  <si>
-    <t>23/07/30（日）</t>
-  </si>
-  <si>
-    <t>23/07/31（月）</t>
   </si>
   <si>
     <t>法定外休日</t>
@@ -532,6 +439,53 @@
     <t>休憩3まで</t>
     <rPh sb="0" eb="2">
       <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務種類</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就業時間帯</t>
+    <rPh sb="0" eb="2">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジカンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤時刻</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退勤時刻</t>
+    <rPh sb="0" eb="2">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -606,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -636,6 +590,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -644,12 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,7 +910,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -985,10 +940,10 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -999,19 +954,19 @@
       <c r="C3" s="9">
         <v>45108</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
@@ -1025,10 +980,10 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,10 +1001,10 @@
         <f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45108</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="16"/>
+      <c r="C7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
         <v>14</v>
@@ -1065,10 +1020,10 @@
         <f t="shared" ref="B8:B37" si="0">B7+1</f>
         <v>45109</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="16"/>
+      <c r="C8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>13</v>
@@ -1082,10 +1037,10 @@
         <f t="shared" si="0"/>
         <v>45110</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
         <v>14</v>
@@ -1099,10 +1054,10 @@
         <f t="shared" si="0"/>
         <v>45111</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>13</v>
@@ -1116,10 +1071,10 @@
         <f t="shared" si="0"/>
         <v>45112</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
         <v>14</v>
@@ -1133,10 +1088,10 @@
         <f t="shared" si="0"/>
         <v>45113</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>13</v>
@@ -1150,10 +1105,10 @@
         <f t="shared" si="0"/>
         <v>45114</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
         <v>14</v>
@@ -1167,10 +1122,10 @@
         <f t="shared" si="0"/>
         <v>45115</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="16"/>
+      <c r="C14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
         <v>13</v>
@@ -1184,10 +1139,10 @@
         <f t="shared" si="0"/>
         <v>45116</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="16"/>
+      <c r="C15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
         <v>14</v>
@@ -1201,10 +1156,10 @@
         <f t="shared" si="0"/>
         <v>45117</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
         <v>13</v>
@@ -1218,10 +1173,10 @@
         <f t="shared" si="0"/>
         <v>45118</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>14</v>
@@ -1235,10 +1190,10 @@
         <f t="shared" si="0"/>
         <v>45119</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -1252,10 +1207,10 @@
         <f t="shared" si="0"/>
         <v>45120</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2" t="s">
         <v>14</v>
@@ -1268,10 +1223,10 @@
         <f t="shared" si="0"/>
         <v>45121</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>13</v>
@@ -1284,10 +1239,10 @@
         <f t="shared" si="0"/>
         <v>45122</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="16"/>
+      <c r="C21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="15"/>
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
         <v>14</v>
@@ -1300,10 +1255,10 @@
         <f t="shared" si="0"/>
         <v>45123</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="17"/>
+      <c r="C22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="14"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
         <v>13</v>
@@ -1314,10 +1269,10 @@
         <f t="shared" si="0"/>
         <v>45124</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="17"/>
+      <c r="C23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="14"/>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
         <v>14</v>
@@ -1328,10 +1283,10 @@
         <f t="shared" si="0"/>
         <v>45125</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="17"/>
+      <c r="C24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="14"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
         <v>13</v>
@@ -1342,10 +1297,10 @@
         <f t="shared" si="0"/>
         <v>45126</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="17"/>
+      <c r="C25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="14"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
         <v>14</v>
@@ -1356,10 +1311,10 @@
         <f t="shared" si="0"/>
         <v>45127</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="17"/>
+      <c r="C26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="14"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
         <v>13</v>
@@ -1370,10 +1325,10 @@
         <f t="shared" si="0"/>
         <v>45128</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="17"/>
+      <c r="C27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="14"/>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
         <v>14</v>
@@ -1384,10 +1339,10 @@
         <f t="shared" si="0"/>
         <v>45129</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="17"/>
+      <c r="C28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="14"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
         <v>13</v>
@@ -1398,10 +1353,10 @@
         <f t="shared" si="0"/>
         <v>45130</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="17"/>
+      <c r="C29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="14"/>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
         <v>14</v>
@@ -1412,10 +1367,10 @@
         <f t="shared" si="0"/>
         <v>45131</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
         <v>13</v>
@@ -1426,10 +1381,10 @@
         <f t="shared" si="0"/>
         <v>45132</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
         <v>14</v>
@@ -1440,10 +1395,10 @@
         <f t="shared" si="0"/>
         <v>45133</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -1454,10 +1409,10 @@
         <f t="shared" si="0"/>
         <v>45134</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
         <v>14</v>
@@ -1468,10 +1423,10 @@
         <f t="shared" si="0"/>
         <v>45135</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
         <v>13</v>
@@ -1482,10 +1437,10 @@
         <f t="shared" si="0"/>
         <v>45136</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="17"/>
+      <c r="C35" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="14"/>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
         <v>14</v>
@@ -1496,10 +1451,10 @@
         <f t="shared" si="0"/>
         <v>45137</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="17"/>
+      <c r="C36" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="14"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
         <v>13</v>
@@ -1510,10 +1465,10 @@
         <f t="shared" si="0"/>
         <v>45138</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
         <v>14</v>
@@ -1521,41 +1476,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B7:F37">
@@ -1577,76 +1532,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112D9E-0DB1-4747-AB6C-73CE8930DFF9}">
-  <dimension ref="B2:S32"/>
+  <dimension ref="B1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
+    <col min="2" max="2" width="15.08203125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:19">
+      <c r="B1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="2" spans="2:19">
-      <c r="B2" t="s">
+      <c r="B2" s="13">
+        <v>45108</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" t="s">
-        <v>17</v>
+      <c r="B3" s="13">
+        <v>45109</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="H3" s="12" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" t="s">
-        <v>19</v>
+      <c r="B4" s="13">
+        <v>45110</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10">
         <v>0.38194444444444442</v>
@@ -1679,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="R4" s="10">
         <v>0.5</v>
@@ -1689,14 +1662,14 @@
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" t="s">
-        <v>21</v>
+      <c r="B5" s="13">
+        <v>45111</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="10">
         <v>0.3611111111111111</v>
@@ -1729,7 +1702,7 @@
         <v>0.77916666666666667</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="R5" s="10">
         <v>0.75</v>
@@ -1739,14 +1712,14 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" t="s">
-        <v>22</v>
+      <c r="B6" s="13">
+        <v>45112</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6" s="10">
         <v>0.36805555555555558</v>
@@ -1779,7 +1752,7 @@
         <v>0.77430555555555547</v>
       </c>
       <c r="Q6" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="R6" s="10">
         <v>0.97916666666666663</v>
@@ -1789,14 +1762,14 @@
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" t="s">
-        <v>24</v>
+      <c r="B7" s="13">
+        <v>45113</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" s="10">
         <v>0.36458333333333331</v>
@@ -1829,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="R7" s="10">
         <v>0.20833333333333334</v>
@@ -1839,14 +1812,14 @@
       </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" t="s">
-        <v>27</v>
+      <c r="B8" s="13">
+        <v>45114</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="10">
         <v>0.36180555555555555</v>
@@ -1880,330 +1853,330 @@
       </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" t="s">
+      <c r="B9" s="13">
+        <v>45115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="13">
+        <v>45116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="13">
+        <v>45117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="13">
+        <v>45118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="13">
+        <v>45119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="13">
+        <v>45120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="13">
+        <v>45121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="13">
+        <v>45122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="13">
+        <v>45123</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
-      <c r="B10" t="s">
+    <row r="18" spans="2:6">
+      <c r="B18" s="13">
+        <v>45124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="13">
+        <v>45125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="13">
+        <v>45126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12" t="s">
+      <c r="F20" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="13">
+        <v>45127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="13">
+        <v>45128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="13">
+        <v>45129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="13">
+        <v>45130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="13">
+        <v>45131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="13">
+        <v>45132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="13">
+        <v>45133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="13">
+        <v>45134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="13">
+        <v>45135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="13">
+        <v>45136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="13">
+        <v>45137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="13">
+        <v>45138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
         <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19">
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19">
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43FE41FA-B546-4DF2-8D35-C43232336297}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2571C0ED-BE0A-4033-A654-FB52CF89A6EE}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="-11655" windowWidth="18675" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="-13170" windowWidth="18675" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="64">
   <si>
     <r>
       <rPr>
@@ -489,16 +489,21 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>テレワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0000/00"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\(aaa\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm"/>
     <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="181" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -560,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -606,6 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -910,7 +916,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1005,7 +1011,9 @@
         <v>42</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1024,7 +1032,9 @@
         <v>44</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1051,9 @@
         <v>12</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1070,9 @@
         <v>12</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1075,7 +1089,9 @@
         <v>12</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1108,9 @@
         <v>12</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1109,7 +1127,9 @@
         <v>12</v>
       </c>
       <c r="D13" s="15"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1126,7 +1146,9 @@
         <v>42</v>
       </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1165,9 @@
         <v>44</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1160,7 +1184,9 @@
         <v>12</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1177,7 +1203,9 @@
         <v>12</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1194,7 +1222,9 @@
         <v>12</v>
       </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1211,7 +1241,9 @@
         <v>12</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1227,7 +1259,9 @@
         <v>12</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1243,7 +1277,9 @@
         <v>15</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1259,7 +1295,9 @@
         <v>43</v>
       </c>
       <c r="D22" s="14"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1311,9 @@
         <v>11</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1327,9 @@
         <v>11</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1301,7 +1343,9 @@
         <v>11</v>
       </c>
       <c r="D25" s="14"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1315,7 +1359,9 @@
         <v>11</v>
       </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
@@ -1329,7 +1375,9 @@
         <v>11</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1343,7 +1391,9 @@
         <v>42</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1357,7 +1407,9 @@
         <v>44</v>
       </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1371,7 +1423,9 @@
         <v>12</v>
       </c>
       <c r="D30" s="14"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
@@ -1385,7 +1439,9 @@
         <v>12</v>
       </c>
       <c r="D31" s="14"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1399,7 +1455,9 @@
         <v>12</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
       </c>
@@ -1413,7 +1471,9 @@
         <v>12</v>
       </c>
       <c r="D33" s="14"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1427,7 +1487,9 @@
         <v>12</v>
       </c>
       <c r="D34" s="14"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +1503,9 @@
         <v>42</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1455,7 +1519,9 @@
         <v>44</v>
       </c>
       <c r="D36" s="14"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F36" s="2" t="s">
         <v>13</v>
       </c>
@@ -1469,7 +1535,9 @@
         <v>12</v>
       </c>
       <c r="D37" s="14"/>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1535,12 +1603,13 @@
   <dimension ref="B1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="15.08203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="19"/>
     <col min="8" max="14" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
@@ -1554,10 +1623,10 @@
       <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1568,8 +1637,12 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="19">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0.75</v>
+      </c>
       <c r="Q2" t="s">
         <v>45</v>
       </c>
@@ -1581,8 +1654,12 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="19">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.77916666666666667</v>
+      </c>
       <c r="H3" s="12" t="s">
         <v>51</v>
       </c>
@@ -1621,10 +1698,10 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="19">
         <v>0.38194444444444442</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="19">
         <v>0.75</v>
       </c>
       <c r="H4" s="12">
@@ -1671,10 +1748,10 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="19">
         <v>0.3611111111111111</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="19">
         <v>0.77916666666666667</v>
       </c>
       <c r="H5" s="12">
@@ -1721,10 +1798,10 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="19">
         <v>0.36805555555555558</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="19">
         <v>0.77430555555555547</v>
       </c>
       <c r="H6" s="12">
@@ -1771,10 +1848,10 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="19">
         <v>0.36458333333333331</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="19">
         <v>0.76874999999999993</v>
       </c>
       <c r="H7" s="12">
@@ -1821,10 +1898,10 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="19">
         <v>0.36180555555555555</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="19">
         <v>0.80902777777777779</v>
       </c>
       <c r="H8" s="12">
@@ -1878,10 +1955,10 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1895,10 +1972,10 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1912,10 +1989,10 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1929,10 +2006,10 @@
       <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1946,10 +2023,10 @@
       <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1987,10 +2064,10 @@
       <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2004,10 +2081,10 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2021,10 +2098,10 @@
       <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2038,10 +2115,10 @@
       <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2071,10 +2148,10 @@
       <c r="D25" t="s">
         <v>17</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2088,10 +2165,10 @@
       <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2105,10 +2182,10 @@
       <c r="D27" t="s">
         <v>18</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2122,10 +2199,10 @@
       <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2139,10 +2216,10 @@
       <c r="D29" t="s">
         <v>18</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2172,10 +2249,10 @@
       <c r="D32" t="s">
         <v>18</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="19" t="s">
         <v>20</v>
       </c>
     </row>

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2571C0ED-BE0A-4033-A654-FB52CF89A6EE}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="-13170" windowWidth="18675" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="520" yWindow="780" windowWidth="18680" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\(aaa\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm"/>
     <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="hh:mm"/>
+    <numFmt numFmtId="180" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -596,12 +596,7 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -611,7 +606,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -946,10 +946,10 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -960,19 +960,19 @@
       <c r="C3" s="9">
         <v>45108</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
@@ -986,10 +986,10 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,10 +1007,10 @@
         <f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45108</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="3" t="s">
         <v>63</v>
       </c>
@@ -1028,10 +1028,10 @@
         <f t="shared" ref="B8:B37" si="0">B7+1</f>
         <v>45109</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="3" t="s">
         <v>63</v>
       </c>
@@ -1047,10 +1047,10 @@
         <f t="shared" si="0"/>
         <v>45110</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3" t="s">
         <v>63</v>
       </c>
@@ -1066,10 +1066,10 @@
         <f t="shared" si="0"/>
         <v>45111</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="3" t="s">
         <v>63</v>
       </c>
@@ -1085,10 +1085,10 @@
         <f t="shared" si="0"/>
         <v>45112</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="3" t="s">
         <v>63</v>
       </c>
@@ -1104,10 +1104,10 @@
         <f t="shared" si="0"/>
         <v>45113</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="3" t="s">
         <v>63</v>
       </c>
@@ -1123,10 +1123,10 @@
         <f t="shared" si="0"/>
         <v>45114</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="3" t="s">
         <v>63</v>
       </c>
@@ -1142,10 +1142,10 @@
         <f t="shared" si="0"/>
         <v>45115</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="3" t="s">
         <v>63</v>
       </c>
@@ -1161,10 +1161,10 @@
         <f t="shared" si="0"/>
         <v>45116</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="3" t="s">
         <v>63</v>
       </c>
@@ -1180,10 +1180,10 @@
         <f t="shared" si="0"/>
         <v>45117</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="3" t="s">
         <v>63</v>
       </c>
@@ -1199,10 +1199,10 @@
         <f t="shared" si="0"/>
         <v>45118</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="3" t="s">
         <v>63</v>
       </c>
@@ -1218,10 +1218,10 @@
         <f t="shared" si="0"/>
         <v>45119</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="3" t="s">
         <v>63</v>
       </c>
@@ -1237,10 +1237,10 @@
         <f t="shared" si="0"/>
         <v>45120</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="3" t="s">
         <v>63</v>
       </c>
@@ -1255,10 +1255,10 @@
         <f t="shared" si="0"/>
         <v>45121</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="3" t="s">
         <v>63</v>
       </c>
@@ -1273,10 +1273,10 @@
         <f t="shared" si="0"/>
         <v>45122</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="3" t="s">
         <v>63</v>
       </c>
@@ -1291,10 +1291,10 @@
         <f t="shared" si="0"/>
         <v>45123</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="3" t="s">
         <v>63</v>
       </c>
@@ -1307,10 +1307,10 @@
         <f t="shared" si="0"/>
         <v>45124</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="14"/>
+      <c r="C23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="19"/>
       <c r="E23" s="3" t="s">
         <v>63</v>
       </c>
@@ -1323,10 +1323,10 @@
         <f t="shared" si="0"/>
         <v>45125</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="14"/>
+      <c r="C24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="19"/>
       <c r="E24" s="3" t="s">
         <v>63</v>
       </c>
@@ -1339,10 +1339,10 @@
         <f t="shared" si="0"/>
         <v>45126</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="14"/>
+      <c r="C25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="3" t="s">
         <v>63</v>
       </c>
@@ -1355,10 +1355,10 @@
         <f t="shared" si="0"/>
         <v>45127</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="14"/>
+      <c r="C26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="19"/>
       <c r="E26" s="3" t="s">
         <v>63</v>
       </c>
@@ -1371,10 +1371,10 @@
         <f t="shared" si="0"/>
         <v>45128</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="14"/>
+      <c r="C27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="19"/>
       <c r="E27" s="3" t="s">
         <v>63</v>
       </c>
@@ -1387,10 +1387,10 @@
         <f t="shared" si="0"/>
         <v>45129</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="3" t="s">
         <v>63</v>
       </c>
@@ -1403,10 +1403,10 @@
         <f t="shared" si="0"/>
         <v>45130</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="3" t="s">
         <v>63</v>
       </c>
@@ -1419,10 +1419,10 @@
         <f t="shared" si="0"/>
         <v>45131</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1435,10 +1435,10 @@
         <f t="shared" si="0"/>
         <v>45132</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="3" t="s">
         <v>63</v>
       </c>
@@ -1451,10 +1451,10 @@
         <f t="shared" si="0"/>
         <v>45133</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="3" t="s">
         <v>63</v>
       </c>
@@ -1467,10 +1467,10 @@
         <f t="shared" si="0"/>
         <v>45134</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="3" t="s">
         <v>63</v>
       </c>
@@ -1483,10 +1483,10 @@
         <f t="shared" si="0"/>
         <v>45135</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="3" t="s">
         <v>63</v>
       </c>
@@ -1499,10 +1499,10 @@
         <f t="shared" si="0"/>
         <v>45136</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="3" t="s">
         <v>63</v>
       </c>
@@ -1515,10 +1515,10 @@
         <f t="shared" si="0"/>
         <v>45137</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="3" t="s">
         <v>63</v>
       </c>
@@ -1531,10 +1531,10 @@
         <f t="shared" si="0"/>
         <v>45138</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="3" t="s">
         <v>63</v>
       </c>
@@ -1544,41 +1544,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B7:F37">
@@ -1609,7 +1609,7 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="15.08203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="19"/>
+    <col min="5" max="6" width="8.6640625" style="14"/>
     <col min="8" max="14" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
@@ -1623,10 +1623,10 @@
       <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1637,10 +1637,10 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="14">
         <v>0.31944444444444448</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="14">
         <v>0.75</v>
       </c>
       <c r="Q2" t="s">
@@ -1654,10 +1654,10 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="14">
         <v>0.3611111111111111</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="14">
         <v>0.77916666666666667</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -1698,10 +1698,10 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="14">
         <v>0.38194444444444442</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="14">
         <v>0.75</v>
       </c>
       <c r="H4" s="12">
@@ -1748,10 +1748,10 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="14">
         <v>0.3611111111111111</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="14">
         <v>0.77916666666666667</v>
       </c>
       <c r="H5" s="12">
@@ -1798,10 +1798,10 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="14">
         <v>0.36805555555555558</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="14">
         <v>0.77430555555555547</v>
       </c>
       <c r="H6" s="12">
@@ -1848,10 +1848,10 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="14">
         <v>0.36458333333333331</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="14">
         <v>0.76874999999999993</v>
       </c>
       <c r="H7" s="12">
@@ -1898,10 +1898,10 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="14">
         <v>0.36180555555555555</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="14">
         <v>0.80902777777777779</v>
       </c>
       <c r="H8" s="12">
@@ -1955,10 +1955,10 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1972,10 +1972,10 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1989,10 +1989,10 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2006,10 +2006,10 @@
       <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2023,10 +2023,10 @@
       <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2064,10 +2064,10 @@
       <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2081,10 +2081,10 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2098,10 +2098,10 @@
       <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2115,10 +2115,10 @@
       <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2148,10 +2148,10 @@
       <c r="D25" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2165,10 +2165,10 @@
       <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2182,10 +2182,10 @@
       <c r="D27" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2199,10 +2199,10 @@
       <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2216,10 +2216,10 @@
       <c r="D29" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2249,10 +2249,10 @@
       <c r="D32" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="14" t="s">
         <v>20</v>
       </c>
     </row>

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2571C0ED-BE0A-4033-A654-FB52CF89A6EE}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{861D8A8E-F8A5-4AA3-BB36-FEA588AFDB73}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="520" yWindow="780" windowWidth="18680" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="72">
   <si>
     <r>
       <rPr>
@@ -219,13 +219,6 @@
     <t>出勤</t>
   </si>
   <si>
-    <t>出勤</t>
-    <rPh sb="0" eb="2">
-      <t>シュッキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SJ-1部※SES-営業支援(原)</t>
   </si>
   <si>
@@ -257,95 +250,6 @@
     <t>ﾃﾚﾜ9-18</t>
   </si>
   <si>
-    <t>当8:45</t>
-  </si>
-  <si>
-    <t>当18:27</t>
-  </si>
-  <si>
-    <t>当18:46</t>
-  </si>
-  <si>
-    <t>当8:51</t>
-  </si>
-  <si>
-    <t>当19:27</t>
-  </si>
-  <si>
-    <t>当8:47</t>
-  </si>
-  <si>
-    <t>当18:26</t>
-  </si>
-  <si>
-    <t>当8:54</t>
-  </si>
-  <si>
-    <t>当19:04</t>
-  </si>
-  <si>
-    <t>当8:52</t>
-  </si>
-  <si>
-    <t>当8:58</t>
-  </si>
-  <si>
-    <t>当19:02</t>
-  </si>
-  <si>
-    <t>当8:48</t>
-  </si>
-  <si>
-    <t>当18:31</t>
-  </si>
-  <si>
-    <t>当18:47</t>
-  </si>
-  <si>
-    <t>当8:46</t>
-  </si>
-  <si>
-    <t>当18:18</t>
-  </si>
-  <si>
-    <t>当19:10</t>
-  </si>
-  <si>
-    <t>当8:53</t>
-  </si>
-  <si>
-    <t>当18:22</t>
-  </si>
-  <si>
-    <t>当18:36</t>
-  </si>
-  <si>
-    <t>当18:12</t>
-  </si>
-  <si>
-    <t>当19:50</t>
-  </si>
-  <si>
-    <t>法定外休日</t>
-    <rPh sb="0" eb="3">
-      <t>ホウテイガイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キュウジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休日</t>
-  </si>
-  <si>
-    <t>休日</t>
-    <rPh sb="0" eb="2">
-      <t>キュウジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>定数(休み)</t>
     <rPh sb="0" eb="2">
       <t>テイスウ</t>
@@ -490,8 +394,125 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テレワーク</t>
+    <t>営業支援</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業支援</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業支援</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23/08/01（火）</t>
+  </si>
+  <si>
+    <t>23/08/02（水）</t>
+  </si>
+  <si>
+    <t>23/08/03（木）</t>
+  </si>
+  <si>
+    <t>23/08/04（金）</t>
+  </si>
+  <si>
+    <t>23/08/05（土）</t>
+  </si>
+  <si>
+    <t>23/08/06（日）</t>
+  </si>
+  <si>
+    <t>23/08/07（月）</t>
+  </si>
+  <si>
+    <t>23/08/08（火）</t>
+  </si>
+  <si>
+    <t>23/08/09（水）</t>
+  </si>
+  <si>
+    <t>23/08/10（木）</t>
+  </si>
+  <si>
+    <t>23/08/11（金）</t>
+  </si>
+  <si>
+    <t>23/08/12（土）</t>
+  </si>
+  <si>
+    <t>23/08/13（日）</t>
+  </si>
+  <si>
+    <t>23/08/14（月）</t>
+  </si>
+  <si>
+    <t>23/08/15（火）</t>
+  </si>
+  <si>
+    <t>23/08/16（水）</t>
+  </si>
+  <si>
+    <t>23/08/17（木）</t>
+  </si>
+  <si>
+    <t>23/08/18（金）</t>
+  </si>
+  <si>
+    <t>23/08/19（土）</t>
+  </si>
+  <si>
+    <t>23/08/20（日）</t>
+  </si>
+  <si>
+    <t>23/08/21（月）</t>
+  </si>
+  <si>
+    <t>夏季休暇</t>
+  </si>
+  <si>
+    <t>23/08/22（火）</t>
+  </si>
+  <si>
+    <t>23/08/23（水）</t>
+  </si>
+  <si>
+    <t>23/08/24（木）</t>
+  </si>
+  <si>
+    <t>23/08/25（金）</t>
+  </si>
+  <si>
+    <t>23/08/26（土）</t>
+  </si>
+  <si>
+    <t>23/08/27（日）</t>
+  </si>
+  <si>
+    <t>23/08/28（月）</t>
+  </si>
+  <si>
+    <t>23/08/29（火）</t>
+  </si>
+  <si>
+    <t>23/08/30（水）</t>
+  </si>
+  <si>
+    <t>23/08/31（木）</t>
+  </si>
+  <si>
+    <t>カテゴリーを選択</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
   </si>
 </sst>
 </file>
@@ -916,13 +937,13 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="E7" sqref="E7:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.08203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.4140625" customWidth="1"/>
     <col min="5" max="5" width="24.25" customWidth="1"/>
@@ -955,11 +976,9 @@
       <c r="A3" s="1"/>
       <c r="B3" s="7">
         <f ca="1">TODAY()</f>
-        <v>45168</v>
-      </c>
-      <c r="C3" s="9">
-        <v>45108</v>
-      </c>
+        <v>45169</v>
+      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
@@ -1004,18 +1023,18 @@
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="6">
-        <f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
-        <v>45108</v>
+        <f ca="1">IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
+        <v>45139</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1"/>
       <c r="I7">
@@ -1025,18 +1044,18 @@
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
-        <f t="shared" ref="B8:B37" si="0">B7+1</f>
-        <v>45109</v>
+        <f t="shared" ref="B8:B37" ca="1" si="0">B7+1</f>
+        <v>45140</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1044,18 +1063,18 @@
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
-        <f t="shared" si="0"/>
-        <v>45110</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45141</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1063,18 +1082,18 @@
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
-        <f t="shared" si="0"/>
-        <v>45111</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45142</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1082,18 +1101,18 @@
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
-        <f t="shared" si="0"/>
-        <v>45112</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45143</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1101,18 +1120,18 @@
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
-        <f t="shared" si="0"/>
-        <v>45113</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45144</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1120,18 +1139,18 @@
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="6">
-        <f t="shared" si="0"/>
-        <v>45114</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45145</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1139,18 +1158,18 @@
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
-        <f t="shared" si="0"/>
-        <v>45115</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45146</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1158,18 +1177,18 @@
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
-        <f t="shared" si="0"/>
-        <v>45116</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45147</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1177,18 +1196,18 @@
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="B16" s="6">
-        <f t="shared" si="0"/>
-        <v>45117</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45148</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1196,18 +1215,18 @@
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="6">
-        <f t="shared" si="0"/>
-        <v>45118</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45149</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1215,18 +1234,18 @@
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="6">
-        <f t="shared" si="0"/>
-        <v>45119</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45150</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1234,312 +1253,312 @@
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="6">
-        <f t="shared" si="0"/>
-        <v>45120</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45151</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="6">
-        <f t="shared" si="0"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45152</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="6">
-        <f t="shared" si="0"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45153</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="6">
-        <f t="shared" si="0"/>
-        <v>45123</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="19"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="18"/>
       <c r="E22" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="6">
-        <f t="shared" si="0"/>
-        <v>45124</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45155</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="6">
-        <f t="shared" si="0"/>
-        <v>45125</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45156</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="6">
-        <f t="shared" si="0"/>
-        <v>45126</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45157</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="6">
-        <f t="shared" si="0"/>
-        <v>45127</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45158</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" s="6">
-        <f t="shared" si="0"/>
-        <v>45128</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45159</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" s="6">
-        <f t="shared" si="0"/>
-        <v>45129</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45160</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="6">
-        <f t="shared" si="0"/>
-        <v>45130</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45161</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="6">
-        <f t="shared" si="0"/>
-        <v>45131</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45162</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="6">
-        <f t="shared" si="0"/>
-        <v>45132</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45163</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="6">
-        <f t="shared" si="0"/>
-        <v>45133</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45164</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="6">
-        <f t="shared" si="0"/>
-        <v>45134</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45165</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="6">
-        <f t="shared" si="0"/>
-        <v>45135</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45166</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="6">
-        <f t="shared" si="0"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45167</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="6">
-        <f t="shared" si="0"/>
-        <v>45137</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45168</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="6">
-        <f t="shared" si="0"/>
-        <v>45138</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45169</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1622,7 @@
   <dimension ref="B1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1615,98 +1634,104 @@
   <sheetData>
     <row r="1" spans="2:19">
       <c r="B1" s="13" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="2:19">
-      <c r="B2" s="13">
-        <v>45108</v>
+      <c r="B2" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="14">
-        <v>0.31944444444444448</v>
+        <v>0.36874999999999997</v>
       </c>
       <c r="F2" s="14">
-        <v>0.75</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="Q2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="13">
-        <v>45109</v>
+      <c r="B3" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="14">
-        <v>0.3611111111111111</v>
+        <v>0.36527777777777781</v>
       </c>
       <c r="F3" s="14">
-        <v>0.77916666666666667</v>
+        <v>0.78055555555555556</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="13">
-        <v>45110</v>
+      <c r="B4" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="14">
-        <v>0.38194444444444442</v>
+        <v>0.36874999999999997</v>
       </c>
       <c r="F4" s="14">
-        <v>0.75</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="H4" s="12">
         <f>IF(E4 &gt; $S$7, E4, $S$7)</f>
-        <v>0.38194444444444442</v>
+        <v>0.375</v>
       </c>
       <c r="I4" s="12">
         <f>IF(F4 &gt; $R$4, $R$4, F4)</f>
@@ -1720,16 +1745,16 @@
         <f>IF(F4 &gt; $R$5, $R$5, F4)</f>
         <v>0.75</v>
       </c>
-      <c r="L4" s="12" t="b">
+      <c r="L4" s="12">
         <f>IF(F4 &gt; $S$5, $S$5, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="12" t="b">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="M4" s="12">
         <f>IF(L4 = FALSE, FALSE,IF(F4 &gt; $R$6, $R$6, F4))</f>
-        <v>0</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="R4" s="10">
         <v>0.5</v>
@@ -1739,8 +1764,8 @@
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="13">
-        <v>45111</v>
+      <c r="B5" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1749,10 +1774,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="14">
-        <v>0.3611111111111111</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="F5" s="14">
-        <v>0.77916666666666667</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="H5" s="12">
         <f>IF(E5 &gt; $S$7, E5, $S$7)</f>
@@ -1776,10 +1801,10 @@
       </c>
       <c r="M5" s="12">
         <f t="shared" ref="M5:M8" si="1">IF(L5 = FALSE, FALSE,IF(F5 &gt; $R$6, $R$6, F5))</f>
-        <v>0.77916666666666667</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="R5" s="10">
         <v>0.75</v>
@@ -1789,20 +1814,11 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="13">
-        <v>45112</v>
+      <c r="B6" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0.77430555555555547</v>
+        <v>14</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" ref="H6:H8" si="2">IF(E6 &gt; $S$7, E6, $S$7)</f>
@@ -1810,26 +1826,26 @@
       </c>
       <c r="I6" s="12">
         <f t="shared" ref="I6:I8" si="3">IF(F6 &gt; $R$4, $R$4, F6)</f>
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12" t="str">
         <f t="shared" ref="J6:J8" si="4">IF(F6 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
-        <v>0.54166666666666663</v>
+        <v>昼休憩後はいません</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" ref="K6:K8" si="5">IF(F6 &gt; $R$5, $R$5, F6)</f>
-        <v>0.75</v>
-      </c>
-      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12" t="b">
         <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12" t="b">
         <f t="shared" si="1"/>
-        <v>0.77430555555555547</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="R6" s="10">
         <v>0.97916666666666663</v>
@@ -1839,20 +1855,11 @@
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="13">
-        <v>45113</v>
+      <c r="B7" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0.76874999999999993</v>
+        <v>15</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="2"/>
@@ -1860,15 +1867,15 @@
       </c>
       <c r="I7" s="12">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>0.54166666666666663</v>
+        <v>昼休憩後はいません</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="5"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L7" s="12" t="b">
         <f t="shared" si="0"/>
@@ -1879,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="R7" s="10">
         <v>0.20833333333333334</v>
@@ -1889,8 +1896,8 @@
       </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="13">
-        <v>45114</v>
+      <c r="B8" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1899,10 +1906,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="14">
-        <v>0.36180555555555555</v>
+        <v>0.375</v>
       </c>
       <c r="F8" s="14">
-        <v>0.80902777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" si="2"/>
@@ -1920,227 +1927,233 @@
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="12" t="b">
         <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12" t="b">
         <f t="shared" si="1"/>
-        <v>0.80902777777777779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="13">
-        <v>45115</v>
+      <c r="B9" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.80486111111111114</v>
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="13">
-        <v>45116</v>
+      <c r="B10" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.76111111111111107</v>
       </c>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="13">
-        <v>45117</v>
+      <c r="B11" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.80555555555555547</v>
       </c>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="13">
-        <v>45118</v>
+      <c r="B12" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="13">
-        <v>45119</v>
+      <c r="B13" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="13">
-        <v>45120</v>
+      <c r="B14" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="13">
-        <v>45121</v>
+      <c r="B15" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.75416666666666676</v>
       </c>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="13">
-        <v>45122</v>
+      <c r="B16" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.76527777777777783</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="13">
-        <v>45123</v>
+      <c r="B17" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
         <v>16</v>
       </c>
+      <c r="E17" s="14">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.7597222222222223</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="13">
-        <v>45124</v>
+      <c r="B18" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0.76944444444444438</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="13">
-        <v>45125</v>
+      <c r="B19" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.76458333333333339</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="13">
-        <v>45126</v>
+      <c r="B20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="13">
-        <v>45127</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="13">
-        <v>45128</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="13">
-        <v>45129</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="13">
-        <v>45130</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>16</v>
       </c>
+      <c r="E24" s="14">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.7680555555555556</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="13">
-        <v>45131</v>
+      <c r="B25" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -2148,112 +2161,109 @@
       <c r="D25" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>36</v>
+      <c r="E25" s="14">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.83124999999999993</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="13">
-        <v>45132</v>
+      <c r="B26" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.79375000000000007</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="13">
-        <v>45133</v>
+      <c r="B27" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="13">
-        <v>45134</v>
+      <c r="B28" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="13">
-        <v>45135</v>
+      <c r="B29" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0.79375000000000007</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="13">
-        <v>45136</v>
+      <c r="B30" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0.78194444444444444</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="13">
-        <v>45137</v>
+      <c r="B31" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
         <v>16</v>
       </c>
+      <c r="E31" s="14">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0.7909722222222223</v>
+      </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="13">
-        <v>45138</v>
+      <c r="B32" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.3659722222222222</v>
       </c>
     </row>
   </sheetData>

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{861D8A8E-F8A5-4AA3-BB36-FEA588AFDB73}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7650A7DA-09E6-447B-A3DE-14C5C2CCAFC8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,21 +148,6 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t>日付</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
       <t>件名</t>
     </r>
     <rPh sb="0" eb="2">
@@ -412,100 +397,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>23/08/01（火）</t>
-  </si>
-  <si>
-    <t>23/08/02（水）</t>
-  </si>
-  <si>
-    <t>23/08/03（木）</t>
-  </si>
-  <si>
-    <t>23/08/04（金）</t>
-  </si>
-  <si>
-    <t>23/08/05（土）</t>
-  </si>
-  <si>
-    <t>23/08/06（日）</t>
-  </si>
-  <si>
-    <t>23/08/07（月）</t>
-  </si>
-  <si>
-    <t>23/08/08（火）</t>
-  </si>
-  <si>
-    <t>23/08/09（水）</t>
-  </si>
-  <si>
-    <t>23/08/10（木）</t>
-  </si>
-  <si>
-    <t>23/08/11（金）</t>
-  </si>
-  <si>
-    <t>23/08/12（土）</t>
-  </si>
-  <si>
-    <t>23/08/13（日）</t>
-  </si>
-  <si>
-    <t>23/08/14（月）</t>
-  </si>
-  <si>
-    <t>23/08/15（火）</t>
-  </si>
-  <si>
-    <t>23/08/16（水）</t>
-  </si>
-  <si>
-    <t>23/08/17（木）</t>
-  </si>
-  <si>
-    <t>23/08/18（金）</t>
-  </si>
-  <si>
-    <t>23/08/19（土）</t>
-  </si>
-  <si>
-    <t>23/08/20（日）</t>
-  </si>
-  <si>
-    <t>23/08/21（月）</t>
-  </si>
-  <si>
     <t>夏季休暇</t>
-  </si>
-  <si>
-    <t>23/08/22（火）</t>
-  </si>
-  <si>
-    <t>23/08/23（水）</t>
-  </si>
-  <si>
-    <t>23/08/24（木）</t>
-  </si>
-  <si>
-    <t>23/08/25（金）</t>
-  </si>
-  <si>
-    <t>23/08/26（土）</t>
-  </si>
-  <si>
-    <t>23/08/27（日）</t>
-  </si>
-  <si>
-    <t>23/08/28（月）</t>
-  </si>
-  <si>
-    <t>23/08/29（火）</t>
-  </si>
-  <si>
-    <t>23/08/30（水）</t>
-  </si>
-  <si>
-    <t>23/08/31（木）</t>
   </si>
   <si>
     <t>カテゴリーを選択</t>
@@ -513,18 +405,119 @@
       <t>センタク</t>
     </rPh>
     <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>23/08/01(火)</t>
+  </si>
+  <si>
+    <t>23/08/02(水)</t>
+  </si>
+  <si>
+    <t>23/08/03(木)</t>
+  </si>
+  <si>
+    <t>23/08/04(金)</t>
+  </si>
+  <si>
+    <t>23/08/05(土)</t>
+  </si>
+  <si>
+    <t>23/08/06(日)</t>
+  </si>
+  <si>
+    <t>23/08/07(月)</t>
+  </si>
+  <si>
+    <t>23/08/08(火)</t>
+  </si>
+  <si>
+    <t>23/08/09(水)</t>
+  </si>
+  <si>
+    <t>23/08/10(木)</t>
+  </si>
+  <si>
+    <t>23/08/11(金)</t>
+  </si>
+  <si>
+    <t>23/08/12(土)</t>
+  </si>
+  <si>
+    <t>23/08/13(日)</t>
+  </si>
+  <si>
+    <t>23/08/14(月)</t>
+  </si>
+  <si>
+    <t>23/08/15(火)</t>
+  </si>
+  <si>
+    <t>23/08/16(水)</t>
+  </si>
+  <si>
+    <t>23/08/17(木)</t>
+  </si>
+  <si>
+    <t>23/08/18(金)</t>
+  </si>
+  <si>
+    <t>23/08/19(土)</t>
+  </si>
+  <si>
+    <t>23/08/20(日)</t>
+  </si>
+  <si>
+    <t>23/08/21(月)</t>
+  </si>
+  <si>
+    <t>23/08/22(火)</t>
+  </si>
+  <si>
+    <t>23/08/23(水)</t>
+  </si>
+  <si>
+    <t>23/08/24(木)</t>
+  </si>
+  <si>
+    <t>23/08/25(金)</t>
+  </si>
+  <si>
+    <t>23/08/26(土)</t>
+  </si>
+  <si>
+    <t>23/08/27(日)</t>
+  </si>
+  <si>
+    <t>23/08/28(月)</t>
+  </si>
+  <si>
+    <t>23/08/29(火)</t>
+  </si>
+  <si>
+    <t>23/08/30(水)</t>
+  </si>
+  <si>
+    <t>23/08/31(木)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0000/00"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\(aaa\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm"/>
     <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="180" formatCode="hh:mm"/>
+    <numFmt numFmtId="184" formatCode="yy/mm/dd\(aaa\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -586,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -603,9 +596,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -618,6 +608,9 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -632,6 +625,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,7 +933,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E37"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -974,11 +970,11 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <f ca="1">TODAY()</f>
         <v>45169</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
@@ -986,7 +982,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="5"/>
       <c r="D4" s="16" t="s">
         <v>5</v>
@@ -995,46 +991,46 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>7</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
-      <c r="B7" s="6">
+      <c r="B7" s="20">
         <f ca="1">IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45139</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1"/>
       <c r="I7">
@@ -1043,522 +1039,522 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
-      <c r="B8" s="6">
+      <c r="B8" s="20">
         <f t="shared" ref="B8:B37" ca="1" si="0">B7+1</f>
         <v>45140</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
-      <c r="B9" s="6">
+      <c r="B9" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45141</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
-      <c r="B10" s="6">
+      <c r="B10" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45142</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
-      <c r="B11" s="6">
+      <c r="B11" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45143</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
-      <c r="B12" s="6">
+      <c r="B12" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45144</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
-      <c r="B13" s="6">
+      <c r="B13" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45145</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
-      <c r="B14" s="6">
+      <c r="B14" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45146</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
-      <c r="B15" s="6">
+      <c r="B15" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45147</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
-      <c r="B16" s="6">
+      <c r="B16" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45148</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
-      <c r="B17" s="6">
+      <c r="B17" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45149</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
-      <c r="B18" s="6">
+      <c r="B18" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45150</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="6">
+      <c r="B19" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45151</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="6">
+      <c r="B20" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45152</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="6">
+      <c r="B21" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45153</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="6">
+      <c r="B22" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45154</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="6">
+      <c r="B23" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45155</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="6">
+      <c r="B24" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45156</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="6">
+      <c r="B25" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45157</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="6">
+      <c r="B26" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45158</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="6">
+      <c r="B27" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45159</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="6">
+      <c r="B28" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45160</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="6">
+      <c r="B29" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45161</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="6">
+      <c r="B30" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45162</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="6">
+      <c r="B31" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45163</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="6">
+      <c r="B32" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45164</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="6">
+      <c r="B33" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45165</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="6">
+      <c r="B34" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45166</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="6">
+      <c r="B35" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45167</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="6">
+      <c r="B36" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45168</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="6">
+      <c r="B37" s="20">
         <f t="shared" ca="1" si="0"/>
         <v>45169</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1622,647 +1618,647 @@
   <dimension ref="B1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="15.08203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="14"/>
-    <col min="8" max="14" width="8.6640625" style="12"/>
+    <col min="2" max="2" width="15.08203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="13"/>
+    <col min="8" max="14" width="8.6640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="2" spans="2:19">
-      <c r="B2" s="13" t="s">
-        <v>39</v>
+      <c r="B2" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E3" s="13">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13">
         <v>0.36874999999999997</v>
       </c>
-      <c r="F2" s="14">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19">
-      <c r="B3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0.36527777777777781</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0.78055555555555556</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.36874999999999997</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0.78333333333333333</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <f>IF(E4 &gt; $S$7, E4, $S$7)</f>
         <v>0.375</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <f>IF(F4 &gt; $R$4, $R$4, F4)</f>
         <v>0.5</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <f>IF(F4 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <f>IF(F4 &gt; $R$5, $R$5, F4)</f>
         <v>0.75</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <f>IF(F4 &gt; $S$5, $S$5, FALSE)</f>
         <v>0.77083333333333337</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <f>IF(L4 = FALSE, FALSE,IF(F4 &gt; $R$6, $R$6, F4))</f>
         <v>0.78333333333333333</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="10">
+        <v>18</v>
+      </c>
+      <c r="R4" s="9">
         <v>0.5</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="9">
         <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="13" t="s">
-        <v>42</v>
+      <c r="B5" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="14">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13">
         <v>0.35555555555555557</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>0.78888888888888886</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <f>IF(E5 &gt; $S$7, E5, $S$7)</f>
         <v>0.375</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <f>IF(F5 &gt; $R$4, $R$4, F5)</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <f>IF(F5 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <f>IF(F5 &gt; $R$5, $R$5, F5)</f>
         <v>0.75</v>
       </c>
-      <c r="L5" s="12">
-        <f t="shared" ref="L5:L8" si="0">IF(F5 &gt; $S$5, $S$5, FALSE)</f>
+      <c r="L5" s="11">
+        <f>IF(F5 &gt; $S$5, $S$5, FALSE)</f>
         <v>0.77083333333333337</v>
       </c>
-      <c r="M5" s="12">
-        <f t="shared" ref="M5:M8" si="1">IF(L5 = FALSE, FALSE,IF(F5 &gt; $R$6, $R$6, F5))</f>
+      <c r="M5" s="11">
+        <f>IF(L5 = FALSE, FALSE,IF(F5 &gt; $R$6, $R$6, F5))</f>
         <v>0.78888888888888886</v>
       </c>
       <c r="Q5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="11">
+        <f>IF(E6 &gt; $S$7, E6, $S$7)</f>
+        <v>0.375</v>
+      </c>
+      <c r="I6" s="11">
+        <f>IF(F6 &gt; $R$4, $R$4, F6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="11" t="str">
+        <f>IF(F6 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
+        <v>昼休憩後はいません</v>
+      </c>
+      <c r="K6" s="11">
+        <f>IF(F6 &gt; $R$5, $R$5, F6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="11" t="b">
+        <f>IF(F6 &gt; $S$5, $S$5, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="11" t="b">
+        <f>IF(L6 = FALSE, FALSE,IF(F6 &gt; $R$6, $R$6, F6))</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R6" s="9">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="S6" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="11">
+        <f>IF(E7 &gt; $S$7, E7, $S$7)</f>
+        <v>0.375</v>
+      </c>
+      <c r="I7" s="11">
+        <f>IF(F7 &gt; $R$4, $R$4, F7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="11" t="str">
+        <f>IF(F7 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
+        <v>昼休憩後はいません</v>
+      </c>
+      <c r="K7" s="11">
+        <f>IF(F7 &gt; $R$5, $R$5, F7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="11" t="b">
+        <f>IF(F7 &gt; $S$5, $S$5, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="11" t="b">
+        <f>IF(L7 = FALSE, FALSE,IF(F7 &gt; $R$6, $R$6, F7))</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F8" s="13">
         <v>0.75</v>
       </c>
-      <c r="S5" s="10">
-        <v>0.77083333333333337</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="H8" s="11">
+        <f>IF(E8 &gt; $S$7, E8, $S$7)</f>
+        <v>0.375</v>
+      </c>
+      <c r="I8" s="11">
+        <f>IF(F8 &gt; $R$4, $R$4, F8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="11">
+        <f>IF(F8 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K8" s="11">
+        <f>IF(F8 &gt; $R$5, $R$5, F8)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L8" s="11" t="b">
+        <f>IF(F8 &gt; $S$5, $S$5, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="11" t="b">
+        <f>IF(L8 = FALSE, FALSE,IF(F8 &gt; $R$6, $R$6, F8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.80486111111111114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.76111111111111107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.80555555555555547</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="12">
-        <f t="shared" ref="H6:H8" si="2">IF(E6 &gt; $S$7, E6, $S$7)</f>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.75416666666666676</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.76527777777777783</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.7597222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.76944444444444438</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.76458333333333339</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0.7680555555555556</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0.83124999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.79375000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.79375000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="13">
         <v>0.375</v>
       </c>
-      <c r="I6" s="12">
-        <f t="shared" ref="I6:I8" si="3">IF(F6 &gt; $R$4, $R$4, F6)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="12" t="str">
-        <f t="shared" ref="J6:J8" si="4">IF(F6 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
-        <v>昼休憩後はいません</v>
-      </c>
-      <c r="K6" s="12">
-        <f t="shared" ref="K6:K8" si="5">IF(F6 &gt; $R$5, $R$5, F6)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="12" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="S6" s="11">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="B7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F30" s="13">
+        <v>0.78194444444444444</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="12">
-        <f t="shared" si="2"/>
-        <v>0.375</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>昼休憩後はいません</v>
-      </c>
-      <c r="K7" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="12" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="10">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="S7" s="10">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19">
-      <c r="B8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" si="2"/>
-        <v>0.375</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="4"/>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="K8" s="12">
-        <f t="shared" si="5"/>
-        <v>0.75</v>
-      </c>
-      <c r="L8" s="12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="12" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0.36944444444444446</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0.80486111111111114</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="B10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0.3659722222222222</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0.76111111111111107</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="B11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="E31" s="13">
         <v>0.36805555555555558</v>
       </c>
-      <c r="F11" s="14">
-        <v>0.80555555555555547</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19">
-      <c r="B13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="F31" s="13">
+        <v>0.7909722222222223</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:19">
-      <c r="B15" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0.37152777777777773</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0.75416666666666676</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0.76527777777777783</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0.36944444444444446</v>
-      </c>
-      <c r="F17" s="14">
-        <v>0.7597222222222223</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0.36527777777777781</v>
-      </c>
-      <c r="F18" s="14">
-        <v>0.76944444444444438</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0.37013888888888885</v>
-      </c>
-      <c r="F19" s="14">
-        <v>0.76458333333333339</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0.36736111111111108</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0.7680555555555556</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0.36527777777777781</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0.83124999999999993</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="F26" s="14">
-        <v>0.79375000000000007</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="14">
-        <v>0.37013888888888885</v>
-      </c>
-      <c r="F29" s="14">
-        <v>0.79375000000000007</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="F30" s="14">
-        <v>0.78194444444444444</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="F31" s="14">
-        <v>0.7909722222222223</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>0.3659722222222222</v>
       </c>
     </row>

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7650A7DA-09E6-447B-A3DE-14C5C2CCAFC8}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06FF747C-FE40-4494-BB02-5A901085BE8C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
     <numFmt numFmtId="178" formatCode="yyyy/mm"/>
     <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="180" formatCode="hh:mm"/>
-    <numFmt numFmtId="184" formatCode="yy/mm/dd\(aaa\)"/>
+    <numFmt numFmtId="181" formatCode="yy/mm/dd\(aaa\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -611,6 +611,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -619,15 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -963,31 +963,33 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45169</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="16" t="s">
+        <v>45170</v>
+      </c>
+      <c r="C3" s="8">
+        <v>45139</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
@@ -1001,10 +1003,10 @@
       <c r="B6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,14 +1020,14 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
-      <c r="B7" s="20">
-        <f ca="1">IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
+      <c r="B7" s="15">
+        <f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45139</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1039,14 +1041,14 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
-      <c r="B8" s="20">
-        <f t="shared" ref="B8:B37" ca="1" si="0">B7+1</f>
+      <c r="B8" s="15">
+        <f t="shared" ref="B8:B37" si="0">B7+1</f>
         <v>45140</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
@@ -1058,14 +1060,14 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
-      <c r="B9" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B9" s="15">
+        <f t="shared" si="0"/>
         <v>45141</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1077,14 +1079,14 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
-      <c r="B10" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B10" s="15">
+        <f t="shared" si="0"/>
         <v>45142</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1096,14 +1098,14 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
-      <c r="B11" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B11" s="15">
+        <f t="shared" si="0"/>
         <v>45143</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
@@ -1115,14 +1117,14 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
-      <c r="B12" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B12" s="15">
+        <f t="shared" si="0"/>
         <v>45144</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1134,14 +1136,14 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
-      <c r="B13" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B13" s="15">
+        <f t="shared" si="0"/>
         <v>45145</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
@@ -1153,14 +1155,14 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
-      <c r="B14" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B14" s="15">
+        <f t="shared" si="0"/>
         <v>45146</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1172,14 +1174,14 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
-      <c r="B15" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B15" s="15">
+        <f t="shared" si="0"/>
         <v>45147</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1191,14 +1193,14 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
-      <c r="B16" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B16" s="15">
+        <f t="shared" si="0"/>
         <v>45148</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1210,14 +1212,14 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
-      <c r="B17" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B17" s="15">
+        <f t="shared" si="0"/>
         <v>45149</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1229,14 +1231,14 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
-      <c r="B18" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B18" s="15">
+        <f t="shared" si="0"/>
         <v>45150</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1248,14 +1250,14 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B19" s="15">
+        <f t="shared" si="0"/>
         <v>45151</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1266,14 +1268,14 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B20" s="15">
+        <f t="shared" si="0"/>
         <v>45152</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="3" t="s">
         <v>39</v>
       </c>
@@ -1284,14 +1286,14 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B21" s="15">
+        <f t="shared" si="0"/>
         <v>45153</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1302,14 +1304,14 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B22" s="15">
+        <f t="shared" si="0"/>
         <v>45154</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="3" t="s">
         <v>39</v>
       </c>
@@ -1318,14 +1320,14 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B23" s="15">
+        <f t="shared" si="0"/>
         <v>45155</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="3" t="s">
         <v>39</v>
       </c>
@@ -1334,14 +1336,14 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B24" s="15">
+        <f t="shared" si="0"/>
         <v>45156</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1350,14 +1352,14 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B25" s="15">
+        <f t="shared" si="0"/>
         <v>45157</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="3" t="s">
         <v>39</v>
       </c>
@@ -1366,14 +1368,14 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B26" s="15">
+        <f t="shared" si="0"/>
         <v>45158</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="3" t="s">
         <v>39</v>
       </c>
@@ -1382,14 +1384,14 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B27" s="15">
+        <f t="shared" si="0"/>
         <v>45159</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="3" t="s">
         <v>39</v>
       </c>
@@ -1398,14 +1400,14 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B28" s="15">
+        <f t="shared" si="0"/>
         <v>45160</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="3" t="s">
         <v>39</v>
       </c>
@@ -1414,14 +1416,14 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B29" s="15">
+        <f t="shared" si="0"/>
         <v>45161</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="3" t="s">
         <v>39</v>
       </c>
@@ -1430,14 +1432,14 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B30" s="15">
+        <f t="shared" si="0"/>
         <v>45162</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="3" t="s">
         <v>39</v>
       </c>
@@ -1446,14 +1448,14 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B31" s="15">
+        <f t="shared" si="0"/>
         <v>45163</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1462,14 +1464,14 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B32" s="15">
+        <f t="shared" si="0"/>
         <v>45164</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1478,14 +1480,14 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B33" s="15">
+        <f t="shared" si="0"/>
         <v>45165</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1494,14 +1496,14 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B34" s="15">
+        <f t="shared" si="0"/>
         <v>45166</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="3" t="s">
         <v>39</v>
       </c>
@@ -1510,14 +1512,14 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B35" s="15">
+        <f t="shared" si="0"/>
         <v>45167</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="3" t="s">
         <v>39</v>
       </c>
@@ -1526,14 +1528,14 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B36" s="15">
+        <f t="shared" si="0"/>
         <v>45168</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="3" t="s">
         <v>39</v>
       </c>
@@ -1542,14 +1544,14 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B37" s="15">
+        <f t="shared" si="0"/>
         <v>45169</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="3" t="s">
         <v>39</v>
       </c>
@@ -1559,41 +1561,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B7:F37">
@@ -1617,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112D9E-0DB1-4747-AB6C-73CE8930DFF9}">
   <dimension ref="B1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06FF747C-FE40-4494-BB02-5A901085BE8C}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23445D89-836F-4883-9DD1-1C943C2309F0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -614,12 +614,6 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -629,6 +623,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -932,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -963,10 +964,10 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -977,19 +978,19 @@
       <c r="C3" s="8">
         <v>45139</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
@@ -1003,10 +1004,10 @@
       <c r="B6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,10 +1025,10 @@
         <f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45139</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1045,10 +1046,10 @@
         <f t="shared" ref="B8:B37" si="0">B7+1</f>
         <v>45140</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
@@ -1064,10 +1065,10 @@
         <f t="shared" si="0"/>
         <v>45141</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1083,10 +1084,10 @@
         <f t="shared" si="0"/>
         <v>45142</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1102,10 +1103,10 @@
         <f t="shared" si="0"/>
         <v>45143</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
@@ -1121,10 +1122,10 @@
         <f t="shared" si="0"/>
         <v>45144</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1140,10 +1141,10 @@
         <f t="shared" si="0"/>
         <v>45145</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
@@ -1159,10 +1160,10 @@
         <f t="shared" si="0"/>
         <v>45146</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1178,10 +1179,10 @@
         <f t="shared" si="0"/>
         <v>45147</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1197,10 +1198,10 @@
         <f t="shared" si="0"/>
         <v>45148</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1216,10 +1217,10 @@
         <f t="shared" si="0"/>
         <v>45149</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1235,10 +1236,10 @@
         <f t="shared" si="0"/>
         <v>45150</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1254,10 +1255,10 @@
         <f t="shared" si="0"/>
         <v>45151</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1272,10 +1273,10 @@
         <f t="shared" si="0"/>
         <v>45152</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="3" t="s">
         <v>39</v>
       </c>
@@ -1290,10 +1291,10 @@
         <f t="shared" si="0"/>
         <v>45153</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1308,10 +1309,10 @@
         <f t="shared" si="0"/>
         <v>45154</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="3" t="s">
         <v>39</v>
       </c>
@@ -1324,10 +1325,10 @@
         <f t="shared" si="0"/>
         <v>45155</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="3" t="s">
         <v>39</v>
       </c>
@@ -1340,10 +1341,10 @@
         <f t="shared" si="0"/>
         <v>45156</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1356,10 +1357,10 @@
         <f t="shared" si="0"/>
         <v>45157</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="3" t="s">
         <v>39</v>
       </c>
@@ -1372,10 +1373,10 @@
         <f t="shared" si="0"/>
         <v>45158</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="3" t="s">
         <v>39</v>
       </c>
@@ -1388,10 +1389,10 @@
         <f t="shared" si="0"/>
         <v>45159</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="3" t="s">
         <v>39</v>
       </c>
@@ -1404,10 +1405,10 @@
         <f t="shared" si="0"/>
         <v>45160</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="3" t="s">
         <v>39</v>
       </c>
@@ -1420,10 +1421,10 @@
         <f t="shared" si="0"/>
         <v>45161</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="16"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="3" t="s">
         <v>39</v>
       </c>
@@ -1436,10 +1437,10 @@
         <f t="shared" si="0"/>
         <v>45162</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="3" t="s">
         <v>39</v>
       </c>
@@ -1452,10 +1453,10 @@
         <f t="shared" si="0"/>
         <v>45163</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1468,10 +1469,10 @@
         <f t="shared" si="0"/>
         <v>45164</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1484,10 +1485,10 @@
         <f t="shared" si="0"/>
         <v>45165</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1500,10 +1501,10 @@
         <f t="shared" si="0"/>
         <v>45166</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="16"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="3" t="s">
         <v>39</v>
       </c>
@@ -1516,10 +1517,10 @@
         <f t="shared" si="0"/>
         <v>45167</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="16"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="3" t="s">
         <v>39</v>
       </c>
@@ -1532,10 +1533,10 @@
         <f t="shared" si="0"/>
         <v>45168</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="3" t="s">
         <v>39</v>
       </c>
@@ -1548,10 +1549,10 @@
         <f t="shared" si="0"/>
         <v>45169</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="3" t="s">
         <v>39</v>
       </c>
@@ -1561,41 +1562,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B7:F37">
@@ -1619,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112D9E-0DB1-4747-AB6C-73CE8930DFF9}">
   <dimension ref="B1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1967,6 +1968,17 @@
       <c r="F10" s="13">
         <v>0.76111111111111107</v>
       </c>
+      <c r="H10" s="21">
+        <f>(12*60)/100</f>
+        <v>7.2</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0.10980555555555556</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="12" t="s">
@@ -1984,6 +1996,12 @@
       <c r="F11" s="13">
         <v>0.80555555555555547</v>
       </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="12" t="s">

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23445D89-836F-4883-9DD1-1C943C2309F0}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B937DF6-E869-4A0A-AEE1-D40F8D54C999}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -614,6 +614,12 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -623,13 +629,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -964,10 +963,10 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -978,19 +977,19 @@
       <c r="C3" s="8">
         <v>45139</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
@@ -1004,10 +1003,10 @@
       <c r="B6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,10 +1024,10 @@
         <f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45139</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1046,10 +1045,10 @@
         <f t="shared" ref="B8:B37" si="0">B7+1</f>
         <v>45140</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
@@ -1065,10 +1064,10 @@
         <f t="shared" si="0"/>
         <v>45141</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1084,10 +1083,10 @@
         <f t="shared" si="0"/>
         <v>45142</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1103,10 +1102,10 @@
         <f t="shared" si="0"/>
         <v>45143</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
@@ -1122,10 +1121,10 @@
         <f t="shared" si="0"/>
         <v>45144</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1141,10 +1140,10 @@
         <f t="shared" si="0"/>
         <v>45145</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
@@ -1160,10 +1159,10 @@
         <f t="shared" si="0"/>
         <v>45146</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1179,10 +1178,10 @@
         <f t="shared" si="0"/>
         <v>45147</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1198,10 +1197,10 @@
         <f t="shared" si="0"/>
         <v>45148</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1217,10 +1216,10 @@
         <f t="shared" si="0"/>
         <v>45149</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1236,10 +1235,10 @@
         <f t="shared" si="0"/>
         <v>45150</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1255,10 +1254,10 @@
         <f t="shared" si="0"/>
         <v>45151</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1273,10 +1272,10 @@
         <f t="shared" si="0"/>
         <v>45152</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="3" t="s">
         <v>39</v>
       </c>
@@ -1291,10 +1290,10 @@
         <f t="shared" si="0"/>
         <v>45153</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1309,10 +1308,10 @@
         <f t="shared" si="0"/>
         <v>45154</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="3" t="s">
         <v>39</v>
       </c>
@@ -1325,10 +1324,10 @@
         <f t="shared" si="0"/>
         <v>45155</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="3" t="s">
         <v>39</v>
       </c>
@@ -1341,10 +1340,10 @@
         <f t="shared" si="0"/>
         <v>45156</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1357,10 +1356,10 @@
         <f t="shared" si="0"/>
         <v>45157</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="3" t="s">
         <v>39</v>
       </c>
@@ -1373,10 +1372,10 @@
         <f t="shared" si="0"/>
         <v>45158</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="3" t="s">
         <v>39</v>
       </c>
@@ -1389,10 +1388,10 @@
         <f t="shared" si="0"/>
         <v>45159</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="3" t="s">
         <v>39</v>
       </c>
@@ -1405,10 +1404,10 @@
         <f t="shared" si="0"/>
         <v>45160</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="3" t="s">
         <v>39</v>
       </c>
@@ -1421,10 +1420,10 @@
         <f t="shared" si="0"/>
         <v>45161</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="20"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="3" t="s">
         <v>39</v>
       </c>
@@ -1437,10 +1436,10 @@
         <f t="shared" si="0"/>
         <v>45162</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="3" t="s">
         <v>39</v>
       </c>
@@ -1453,10 +1452,10 @@
         <f t="shared" si="0"/>
         <v>45163</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1469,10 +1468,10 @@
         <f t="shared" si="0"/>
         <v>45164</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1485,10 +1484,10 @@
         <f t="shared" si="0"/>
         <v>45165</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="20"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1501,10 +1500,10 @@
         <f t="shared" si="0"/>
         <v>45166</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="3" t="s">
         <v>39</v>
       </c>
@@ -1517,10 +1516,10 @@
         <f t="shared" si="0"/>
         <v>45167</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="3" t="s">
         <v>39</v>
       </c>
@@ -1533,10 +1532,10 @@
         <f t="shared" si="0"/>
         <v>45168</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="3" t="s">
         <v>39</v>
       </c>
@@ -1549,10 +1548,10 @@
         <f t="shared" si="0"/>
         <v>45169</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="3" t="s">
         <v>39</v>
       </c>
@@ -1562,41 +1561,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B7:F37">
@@ -1968,17 +1967,15 @@
       <c r="F10" s="13">
         <v>0.76111111111111107</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10">
         <f>(12*60)/100</f>
         <v>7.2</v>
       </c>
-      <c r="I10" s="21">
-        <v>0.10980555555555556</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="12" t="s">
@@ -1996,12 +1993,12 @@
       <c r="F11" s="13">
         <v>0.80555555555555547</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="12" t="s">

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B937DF6-E869-4A0A-AEE1-D40F8D54C999}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12ADF6E9-AF4E-41B0-BD79-5DFC9D5D66A0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18680" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -614,12 +614,6 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -628,6 +622,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -963,33 +963,33 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="C3" s="8">
         <v>45139</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
@@ -1003,10 +1003,10 @@
       <c r="B6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,10 +1024,10 @@
         <f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45139</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1045,10 +1045,10 @@
         <f t="shared" ref="B8:B37" si="0">B7+1</f>
         <v>45140</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
@@ -1064,10 +1064,10 @@
         <f t="shared" si="0"/>
         <v>45141</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1083,10 +1083,10 @@
         <f t="shared" si="0"/>
         <v>45142</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1102,10 +1102,10 @@
         <f t="shared" si="0"/>
         <v>45143</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
@@ -1121,10 +1121,10 @@
         <f t="shared" si="0"/>
         <v>45144</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1140,10 +1140,10 @@
         <f t="shared" si="0"/>
         <v>45145</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
@@ -1159,10 +1159,10 @@
         <f t="shared" si="0"/>
         <v>45146</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1178,10 +1178,10 @@
         <f t="shared" si="0"/>
         <v>45147</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1197,10 +1197,10 @@
         <f t="shared" si="0"/>
         <v>45148</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1216,10 +1216,10 @@
         <f t="shared" si="0"/>
         <v>45149</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1235,10 +1235,10 @@
         <f t="shared" si="0"/>
         <v>45150</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1254,10 +1254,10 @@
         <f t="shared" si="0"/>
         <v>45151</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1272,10 +1272,10 @@
         <f t="shared" si="0"/>
         <v>45152</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="3" t="s">
         <v>39</v>
       </c>
@@ -1290,10 +1290,10 @@
         <f t="shared" si="0"/>
         <v>45153</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1308,10 +1308,10 @@
         <f t="shared" si="0"/>
         <v>45154</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="3" t="s">
         <v>39</v>
       </c>
@@ -1324,10 +1324,10 @@
         <f t="shared" si="0"/>
         <v>45155</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="3" t="s">
         <v>39</v>
       </c>
@@ -1340,10 +1340,10 @@
         <f t="shared" si="0"/>
         <v>45156</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1356,10 +1356,10 @@
         <f t="shared" si="0"/>
         <v>45157</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="3" t="s">
         <v>39</v>
       </c>
@@ -1372,10 +1372,10 @@
         <f t="shared" si="0"/>
         <v>45158</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="3" t="s">
         <v>39</v>
       </c>
@@ -1388,10 +1388,10 @@
         <f t="shared" si="0"/>
         <v>45159</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="3" t="s">
         <v>39</v>
       </c>
@@ -1404,10 +1404,10 @@
         <f t="shared" si="0"/>
         <v>45160</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="3" t="s">
         <v>39</v>
       </c>
@@ -1420,10 +1420,10 @@
         <f t="shared" si="0"/>
         <v>45161</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="16"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="3" t="s">
         <v>39</v>
       </c>
@@ -1436,10 +1436,10 @@
         <f t="shared" si="0"/>
         <v>45162</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="3" t="s">
         <v>39</v>
       </c>
@@ -1452,10 +1452,10 @@
         <f t="shared" si="0"/>
         <v>45163</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1468,10 +1468,10 @@
         <f t="shared" si="0"/>
         <v>45164</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1484,10 +1484,10 @@
         <f t="shared" si="0"/>
         <v>45165</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1500,10 +1500,10 @@
         <f t="shared" si="0"/>
         <v>45166</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="16"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="3" t="s">
         <v>39</v>
       </c>
@@ -1516,10 +1516,10 @@
         <f t="shared" si="0"/>
         <v>45167</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="16"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="3" t="s">
         <v>39</v>
       </c>
@@ -1532,10 +1532,10 @@
         <f t="shared" si="0"/>
         <v>45168</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="3" t="s">
         <v>39</v>
       </c>
@@ -1548,10 +1548,10 @@
         <f t="shared" si="0"/>
         <v>45169</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="3" t="s">
         <v>39</v>
       </c>
@@ -1561,41 +1561,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B7:F37">
@@ -1619,7 +1619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112D9E-0DB1-4747-AB6C-73CE8930DFF9}">
   <dimension ref="B1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12ADF6E9-AF4E-41B0-BD79-5DFC9D5D66A0}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BED291B1-E453-4A39-AD25-D7579C024F42}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18680" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="18680" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BED291B1-E453-4A39-AD25-D7579C024F42}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="18680" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="1380" windowWidth="18680" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1619,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112D9E-0DB1-4747-AB6C-73CE8930DFF9}">
   <dimension ref="B1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/事前設定/勤務情報&実績_test_ochiai.xlsx
+++ b/事前設定/勤務情報&実績_test_ochiai.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BED291B1-E453-4A39-AD25-D7579C024F42}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="1380" windowWidth="18680" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="-12900" windowWidth="18675" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -614,6 +614,12 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -622,12 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:F37"/>
     </sheetView>
   </sheetViews>
@@ -963,10 +963,10 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -977,19 +977,19 @@
       <c r="C3" s="8">
         <v>45139</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
@@ -1003,10 +1003,10 @@
       <c r="B6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,10 +1024,10 @@
         <f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45139</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1045,10 +1045,10 @@
         <f t="shared" ref="B8:B37" si="0">B7+1</f>
         <v>45140</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
@@ -1064,10 +1064,10 @@
         <f t="shared" si="0"/>
         <v>45141</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1083,10 +1083,10 @@
         <f t="shared" si="0"/>
         <v>45142</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1102,10 +1102,10 @@
         <f t="shared" si="0"/>
         <v>45143</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
@@ -1121,10 +1121,10 @@
         <f t="shared" si="0"/>
         <v>45144</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1140,10 +1140,10 @@
         <f t="shared" si="0"/>
         <v>45145</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
@@ -1159,10 +1159,10 @@
         <f t="shared" si="0"/>
         <v>45146</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1178,10 +1178,10 @@
         <f t="shared" si="0"/>
         <v>45147</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1197,10 +1197,10 @@
         <f t="shared" si="0"/>
         <v>45148</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1216,10 +1216,10 @@
         <f t="shared" si="0"/>
         <v>45149</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1235,10 +1235,10 @@
         <f t="shared" si="0"/>
         <v>45150</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1254,10 +1254,10 @@
         <f t="shared" si="0"/>
         <v>45151</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1272,10 +1272,10 @@
         <f t="shared" si="0"/>
         <v>45152</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="3" t="s">
         <v>39</v>
       </c>
@@ -1290,10 +1290,10 @@
         <f t="shared" si="0"/>
         <v>45153</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1308,10 +1308,10 @@
         <f t="shared" si="0"/>
         <v>45154</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="3" t="s">
         <v>39</v>
       </c>
@@ -1324,10 +1324,10 @@
         <f t="shared" si="0"/>
         <v>45155</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="3" t="s">
         <v>39</v>
       </c>
@@ -1340,10 +1340,10 @@
         <f t="shared" si="0"/>
         <v>45156</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1356,10 +1356,10 @@
         <f t="shared" si="0"/>
         <v>45157</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="3" t="s">
         <v>39</v>
       </c>
@@ -1372,10 +1372,10 @@
         <f t="shared" si="0"/>
         <v>45158</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="3" t="s">
         <v>39</v>
       </c>
@@ -1388,10 +1388,10 @@
         <f t="shared" si="0"/>
         <v>45159</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="3" t="s">
         <v>39</v>
       </c>
@@ -1404,10 +1404,10 @@
         <f t="shared" si="0"/>
         <v>45160</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="3" t="s">
         <v>39</v>
       </c>
@@ -1420,10 +1420,10 @@
         <f t="shared" si="0"/>
         <v>45161</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="20"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="3" t="s">
         <v>39</v>
       </c>
@@ -1436,10 +1436,10 @@
         <f t="shared" si="0"/>
         <v>45162</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="3" t="s">
         <v>39</v>
       </c>
@@ -1452,10 +1452,10 @@
         <f t="shared" si="0"/>
         <v>45163</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1468,10 +1468,10 @@
         <f t="shared" si="0"/>
         <v>45164</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1484,10 +1484,10 @@
         <f t="shared" si="0"/>
         <v>45165</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="20"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1500,10 +1500,10 @@
         <f t="shared" si="0"/>
         <v>45166</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="3" t="s">
         <v>39</v>
       </c>
@@ -1516,10 +1516,10 @@
         <f t="shared" si="0"/>
         <v>45167</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="3" t="s">
         <v>39</v>
       </c>
@@ -1532,10 +1532,10 @@
         <f t="shared" si="0"/>
         <v>45168</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="3" t="s">
         <v>39</v>
       </c>
@@ -1548,10 +1548,10 @@
         <f t="shared" si="0"/>
         <v>45169</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="3" t="s">
         <v>39</v>
       </c>
@@ -1561,41 +1561,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B7:F37">
@@ -1620,7 +1620,7 @@
   <dimension ref="B1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
